--- a/simulation_data/two_step_algorithm/2s_error_level_13_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_13_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.43605406688849</v>
+        <v>98.63050243132993</v>
       </c>
       <c r="D2" t="n">
-        <v>22.59369418546267</v>
+        <v>19.70066310624297</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>97.00740799884066</v>
+        <v>89.95906158149097</v>
       </c>
       <c r="D3" t="n">
-        <v>23.16614712588624</v>
+        <v>19.62102914316892</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.43943164107033</v>
+        <v>91.33724429295646</v>
       </c>
       <c r="D4" t="n">
-        <v>22.05586785387444</v>
+        <v>19.74621743422782</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.91822461460937</v>
+        <v>87.97167456616175</v>
       </c>
       <c r="D5" t="n">
-        <v>20.11846467938006</v>
+        <v>19.80240555825228</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.19399606856786</v>
+        <v>88.65809898219908</v>
       </c>
       <c r="D6" t="n">
-        <v>20.29926418096759</v>
+        <v>18.31403299547862</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>89.45392946649763</v>
+        <v>84.17208875061668</v>
       </c>
       <c r="D7" t="n">
-        <v>21.80112894780575</v>
+        <v>18.24617229316855</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>89.47137758922247</v>
+        <v>89.18028945957039</v>
       </c>
       <c r="D8" t="n">
-        <v>22.94482937794826</v>
+        <v>20.57188420811622</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>87.79287625697607</v>
+        <v>84.54274909059168</v>
       </c>
       <c r="D9" t="n">
-        <v>21.40457671872785</v>
+        <v>19.15919704213998</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.09465332375939</v>
+        <v>85.5079963652516</v>
       </c>
       <c r="D10" t="n">
-        <v>21.15055048908849</v>
+        <v>20.29121742623906</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>86.38718997156398</v>
+        <v>83.63438256094854</v>
       </c>
       <c r="D11" t="n">
-        <v>20.3483121380898</v>
+        <v>17.83709914292401</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>78.65991998143279</v>
+        <v>82.40654615659754</v>
       </c>
       <c r="D12" t="n">
-        <v>22.53634713701069</v>
+        <v>20.7763888304852</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.12406987381766</v>
+        <v>79.8689230537847</v>
       </c>
       <c r="D13" t="n">
-        <v>22.03034024521152</v>
+        <v>16.302651270006</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>82.66506942076454</v>
+        <v>79.83682318382584</v>
       </c>
       <c r="D14" t="n">
-        <v>22.72194082946732</v>
+        <v>19.18968013258214</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>82.17509723893907</v>
+        <v>77.35383185673834</v>
       </c>
       <c r="D15" t="n">
-        <v>21.88214091361248</v>
+        <v>17.60668215662639</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.53414546255657</v>
+        <v>77.66303745849436</v>
       </c>
       <c r="D16" t="n">
-        <v>23.04535474635937</v>
+        <v>21.339110360684</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.20176640659234</v>
+        <v>73.75720056694644</v>
       </c>
       <c r="D17" t="n">
-        <v>20.78025333914864</v>
+        <v>24.33565272061949</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.19897706289592</v>
+        <v>75.70073112461962</v>
       </c>
       <c r="D18" t="n">
-        <v>19.75500598596737</v>
+        <v>19.61965661615752</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.86073250803547</v>
+        <v>72.4278325646262</v>
       </c>
       <c r="D19" t="n">
-        <v>20.64803012706787</v>
+        <v>21.13977371929356</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.65202429292123</v>
+        <v>74.38067871600877</v>
       </c>
       <c r="D20" t="n">
-        <v>20.66764649030764</v>
+        <v>21.06539156317786</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.37673465396171</v>
+        <v>71.92880854563673</v>
       </c>
       <c r="D21" t="n">
-        <v>23.40489433922859</v>
+        <v>18.8835114852402</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.09810366829151</v>
+        <v>71.14615646964278</v>
       </c>
       <c r="D22" t="n">
-        <v>20.33735675453281</v>
+        <v>20.11695150622285</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>73.79855424282165</v>
+        <v>66.73503595033472</v>
       </c>
       <c r="D23" t="n">
-        <v>22.38491158061228</v>
+        <v>18.27323619441772</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.94216536256432</v>
+        <v>69.99856582937805</v>
       </c>
       <c r="D24" t="n">
-        <v>20.83986279000941</v>
+        <v>21.11496732527203</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.61732686537984</v>
+        <v>68.44734821469537</v>
       </c>
       <c r="D25" t="n">
-        <v>21.27291093493712</v>
+        <v>19.70144661869436</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.01997147634157</v>
+        <v>67.37559080176835</v>
       </c>
       <c r="D26" t="n">
-        <v>20.89215279704617</v>
+        <v>19.91131467292179</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.5116872783332</v>
+        <v>64.40491641579121</v>
       </c>
       <c r="D27" t="n">
-        <v>21.82357682245058</v>
+        <v>21.39018429431252</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.17387882088581</v>
+        <v>66.08725128167049</v>
       </c>
       <c r="D28" t="n">
-        <v>18.12498054186308</v>
+        <v>18.3805151407846</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.02147869205231</v>
+        <v>59.86577153037479</v>
       </c>
       <c r="D29" t="n">
-        <v>18.49888993207162</v>
+        <v>17.53849885247699</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.41505952060814</v>
+        <v>64.37231947210852</v>
       </c>
       <c r="D30" t="n">
-        <v>21.62866214266068</v>
+        <v>18.82502477683481</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>64.16292116514605</v>
+        <v>62.3503897823041</v>
       </c>
       <c r="D31" t="n">
-        <v>20.69445349011736</v>
+        <v>21.58508901318746</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.85487512602677</v>
+        <v>59.72447732095993</v>
       </c>
       <c r="D32" t="n">
-        <v>20.10853543805838</v>
+        <v>20.45676197541838</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>62.40288183049923</v>
+        <v>63.0907772691871</v>
       </c>
       <c r="D33" t="n">
-        <v>20.1050453833311</v>
+        <v>18.21070294070713</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>60.90867608048163</v>
+        <v>64.49574157521025</v>
       </c>
       <c r="D34" t="n">
-        <v>18.97120635130014</v>
+        <v>20.91675735835931</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>60.17725006864043</v>
+        <v>58.06194359377923</v>
       </c>
       <c r="D35" t="n">
-        <v>19.06986205183</v>
+        <v>19.25809654532213</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.45584425555093</v>
+        <v>56.51433842023028</v>
       </c>
       <c r="D36" t="n">
-        <v>18.46284736212917</v>
+        <v>19.9134162286671</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>51.98965992233405</v>
+        <v>53.11583276897837</v>
       </c>
       <c r="D37" t="n">
-        <v>20.79360584353344</v>
+        <v>20.84157984829391</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.59731364426139</v>
+        <v>55.8588110977734</v>
       </c>
       <c r="D38" t="n">
-        <v>21.04431071309362</v>
+        <v>19.99034496356013</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.75549304869332</v>
+        <v>54.96810475024556</v>
       </c>
       <c r="D39" t="n">
-        <v>19.94996349307905</v>
+        <v>16.42708157374262</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>54.89170047755338</v>
+        <v>55.48564143466208</v>
       </c>
       <c r="D40" t="n">
-        <v>20.81599170035078</v>
+        <v>18.91204440412607</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>53.07708188530844</v>
+        <v>48.25026880254705</v>
       </c>
       <c r="D41" t="n">
-        <v>20.51887255865234</v>
+        <v>18.28934409519048</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.35381306058301</v>
+        <v>48.16972553617909</v>
       </c>
       <c r="D42" t="n">
-        <v>17.49083994565758</v>
+        <v>17.65711333661383</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>52.20857930422653</v>
+        <v>49.71542185787779</v>
       </c>
       <c r="D43" t="n">
-        <v>20.37295775681122</v>
+        <v>20.50185629304401</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.76277892494789</v>
+        <v>46.79508303610933</v>
       </c>
       <c r="D44" t="n">
-        <v>21.58093369067985</v>
+        <v>20.24449841463095</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.10981675306093</v>
+        <v>50.42891741181311</v>
       </c>
       <c r="D45" t="n">
-        <v>18.02613804845379</v>
+        <v>19.00247402548686</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.3174321615587</v>
+        <v>40.87761978290298</v>
       </c>
       <c r="D46" t="n">
-        <v>21.1376734024173</v>
+        <v>20.1158068010595</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.33245801224676</v>
+        <v>44.47144343128125</v>
       </c>
       <c r="D47" t="n">
-        <v>18.25759664392752</v>
+        <v>18.98232652816093</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>47.21923582433068</v>
+        <v>43.92081744625558</v>
       </c>
       <c r="D48" t="n">
-        <v>20.65624360803373</v>
+        <v>20.09247553478148</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.88229785533982</v>
+        <v>42.63562682396624</v>
       </c>
       <c r="D49" t="n">
-        <v>20.59206873550923</v>
+        <v>17.88394671407251</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.78180685946816</v>
+        <v>43.97016192775745</v>
       </c>
       <c r="D50" t="n">
-        <v>20.5448711089252</v>
+        <v>20.79556033554018</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.22157495506124</v>
+        <v>40.42836364430153</v>
       </c>
       <c r="D51" t="n">
-        <v>18.27794146194841</v>
+        <v>17.12753383799563</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>43.74851087799104</v>
+        <v>41.78696889169611</v>
       </c>
       <c r="D52" t="n">
-        <v>19.43519011235224</v>
+        <v>19.0271361053581</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>41.30988065908731</v>
+        <v>37.84849203494765</v>
       </c>
       <c r="D53" t="n">
-        <v>21.43672662377214</v>
+        <v>19.30979299418764</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.49838489733488</v>
+        <v>37.38984761932571</v>
       </c>
       <c r="D54" t="n">
-        <v>17.40313937109905</v>
+        <v>21.55603632265662</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.1664251349921</v>
+        <v>39.49848941318669</v>
       </c>
       <c r="D55" t="n">
-        <v>18.61410312315579</v>
+        <v>22.76199042225458</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.70389152702028</v>
+        <v>34.4537741149443</v>
       </c>
       <c r="D56" t="n">
-        <v>21.2479835357486</v>
+        <v>19.88448353113334</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.9862541515167</v>
+        <v>32.20951178646239</v>
       </c>
       <c r="D57" t="n">
-        <v>18.329125886117</v>
+        <v>19.83707495838457</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>36.88154896772003</v>
+        <v>36.07179781345496</v>
       </c>
       <c r="D58" t="n">
-        <v>20.62124089770125</v>
+        <v>20.43697266184944</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.35312854455915</v>
+        <v>32.65252525740485</v>
       </c>
       <c r="D59" t="n">
-        <v>18.85845151269833</v>
+        <v>19.49225384353795</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>35.1592337283809</v>
+        <v>30.64627676638994</v>
       </c>
       <c r="D60" t="n">
-        <v>19.39957066068803</v>
+        <v>19.20641955261277</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>26.40956378141468</v>
+        <v>26.57805624098882</v>
       </c>
       <c r="D61" t="n">
-        <v>18.23182980045249</v>
+        <v>20.8880573314989</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.89088744435885</v>
+        <v>27.89600344955176</v>
       </c>
       <c r="D62" t="n">
-        <v>18.64267322375484</v>
+        <v>21.06874828105845</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.95064648301658</v>
+        <v>29.81844041771422</v>
       </c>
       <c r="D63" t="n">
-        <v>19.33056776574115</v>
+        <v>20.42637861941933</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.94457216588242</v>
+        <v>24.50871570555477</v>
       </c>
       <c r="D64" t="n">
-        <v>20.00847210445125</v>
+        <v>17.20065354419972</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.08971642599298</v>
+        <v>25.92707041205415</v>
       </c>
       <c r="D65" t="n">
-        <v>18.39157093678434</v>
+        <v>19.44491806105549</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>28.23236063989268</v>
+        <v>25.77739670503775</v>
       </c>
       <c r="D66" t="n">
-        <v>18.70589649198501</v>
+        <v>19.80070672927214</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>29.05887873606229</v>
+        <v>25.28882800160214</v>
       </c>
       <c r="D67" t="n">
-        <v>19.22321305165365</v>
+        <v>20.06196241326871</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>26.78188683110474</v>
+        <v>23.65304693519035</v>
       </c>
       <c r="D68" t="n">
-        <v>20.75074803742518</v>
+        <v>20.95656685993313</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.10275186692451</v>
+        <v>25.09446355704189</v>
       </c>
       <c r="D69" t="n">
-        <v>18.39636886065214</v>
+        <v>21.091390736026</v>
       </c>
     </row>
   </sheetData>
